--- a/resources/test-plan/Perl On NetBeans_TestSuite.xlsx
+++ b/resources/test-plan/Perl On NetBeans_TestSuite.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudeep\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\perl-on-netbeans\resources\test-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A96863-20AE-4F1C-B046-5659E80DCAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw-data" sheetId="2" r:id="rId1"/>
-    <sheet name="Version 0.5" sheetId="1" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="3" r:id="rId2"/>
+    <sheet name="Version 0.6_NB13" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="40" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
   <si>
     <t>Status</t>
   </si>
@@ -69,9 +74,6 @@
     <t>Open existing Perl project</t>
   </si>
   <si>
-    <t>Create new folder and add a Perl module in that folder</t>
-  </si>
-  <si>
     <t>Expected Outcome</t>
   </si>
   <si>
@@ -123,9 +125,6 @@
     <t>Create a Dancer project with Dancer2 module</t>
   </si>
   <si>
-    <t>Create a Dancer project with the Dancer2 module</t>
-  </si>
-  <si>
     <t>Create Dancer and Dancer2 projects with default and custom Perl binary</t>
   </si>
   <si>
@@ -145,13 +144,91 @@
   </si>
   <si>
     <t>Custom Perl</t>
+  </si>
+  <si>
+    <t>Install module</t>
+  </si>
+  <si>
+    <t>Module installed without errors and all toolbar icons visible</t>
+  </si>
+  <si>
+    <t>No error and all icons removed</t>
+  </si>
+  <si>
+    <t>Reinstall module</t>
+  </si>
+  <si>
+    <t>Basic Tasks</t>
+  </si>
+  <si>
+    <t>Uninstall module</t>
+  </si>
+  <si>
+    <t>Run PerlDoc on a keyword</t>
+  </si>
+  <si>
+    <t>Run PerlDoc on a variable</t>
+  </si>
+  <si>
+    <t>Run PerlDoc on a selected keyword</t>
+  </si>
+  <si>
+    <t>Run PerlDoc on a selected variable</t>
+  </si>
+  <si>
+    <t>Create new Perl file in a Perl project</t>
+  </si>
+  <si>
+    <t>Create new folder and add a new Perl module in that folder</t>
+  </si>
+  <si>
+    <t>Appropriate error message</t>
+  </si>
+  <si>
+    <t>No Perl Installed</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Committ</t>
+  </si>
+  <si>
+    <t>Run Export To HTML on a file</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Test Case</t>
+  </si>
+  <si>
+    <t>Install</t>
+  </si>
+  <si>
+    <t>Release name</t>
+  </si>
+  <si>
+    <t>Create new Perl file in the project</t>
+  </si>
+  <si>
+    <t>Version 0.6_NB13</t>
+  </si>
+  <si>
+    <t>Dancer not supported</t>
+  </si>
+  <si>
+    <t>Create a Dancer project with the Dancer2 module and run it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +251,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +274,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,15 +317,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,6 +373,1411 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Perl On NetBeans_TestSuite.xlsx]Dashboard!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Version 0.5.2_NB13</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34384541062801932"/>
+          <c:y val="5.1315536777415023E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Pass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DBBF-44CF-8606-30E8A5353358}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3C1F12-1BFA-4118-9433-0606A9036483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44706.9533099537" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="45" xr:uid="{3BAC02FA-17B8-497C-BDD7-72340C0FD96F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A4:D49" sheet="Version 0.6_NB13"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Categoy" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Test Case" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Expected Outcome" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Result" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Pass"/>
+        <s v="N/A"/>
+        <m u="1"/>
+        <s v="Not Tested" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
+  <r>
+    <s v="Install"/>
+    <s v="Install module"/>
+    <s v="Module installed without errors and all toolbar icons visible"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Install"/>
+    <s v="Uninstall module"/>
+    <s v="No error and all icons removed"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Install"/>
+    <s v="Reinstall module"/>
+    <s v="Module installed without errors and all toolbar icons visible"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Create new Perl project"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Create new Perl file in a Perl project"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Add existing Perl file to a project"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Create new folder and add a new Perl module in that folder"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Create project from existing sources"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Create new Perl file in the project"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Add existing Perl file to a project"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Open existing Perl project"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Create new Perl file to a Perl project"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Add existing Perl file to a project"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Create a Dancer project without the Dancer module"/>
+    <s v="Appropriate error message"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Create a Dancer project with the Dancer module"/>
+    <s v="Dancer not supported"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Create a Dancer project with Dancer2 module"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Create a Dancer project with the Dancer2 module and run it"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Create Dancer and Dancer2 projects with default and custom Perl binary"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Type in comments in the beginning of the file"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Type in strings with single and double quotes"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Type in strings with q, qw and qq"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Type in a pod description"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Type in decimal, float, and hexadecimal numbers"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Basic Tasks"/>
+    <s v="Type in keywords"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="No Perl Installed"/>
+    <s v="Execute a perl script"/>
+    <s v="Appropriate error message"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="No Perl Installed"/>
+    <s v="Execute a perl script with runtime input parameters"/>
+    <s v="Appropriate error message"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="No Perl Installed"/>
+    <s v="Run Perl Tidy on a script"/>
+    <s v="Appropriate error message"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="No Perl Installed"/>
+    <s v="Run Perl Critic on a script"/>
+    <s v="Appropriate error message"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="No Perl Installed"/>
+    <s v="Run PerlDoc on a keyword"/>
+    <s v="Appropriate error message"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="No Perl Installed"/>
+    <s v="Run PerlDoc on a variable"/>
+    <s v="Appropriate error message"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="No Perl Installed"/>
+    <s v="Run Export To HTML on a file"/>
+    <s v="Appropriate error message"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Default Perl"/>
+    <s v="Execute a perl script"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Default Perl"/>
+    <s v="Execute a perl script with runtime input parameters"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Default Perl"/>
+    <s v="Run Perl Tidy on a script"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Default Perl"/>
+    <s v="Run Perl Critic on a script"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Default Perl"/>
+    <s v="Run PerlDoc on a keyword"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Default Perl"/>
+    <s v="Run PerlDoc on a variable"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Default Perl"/>
+    <s v="Run Export To HTML on a file"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Custom Perl"/>
+    <s v="Execute a perl script"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Custom Perl"/>
+    <s v="Execute a perl script with runtime input parameters"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Custom Perl"/>
+    <s v="Run Perl Tidy on a script"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Custom Perl"/>
+    <s v="Run Perl Critic on a script"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Custom Perl"/>
+    <s v="Run PerlDoc on a selected keyword"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Custom Perl"/>
+    <s v="Run PerlDoc on a selected variable"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Custom Perl"/>
+    <s v="Run Export To HTML on a file"/>
+    <m/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C19AA7E-8ECB-47E3-90B5-B747DD4A1591}" name="PivotTable2" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Test Case" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,7 +2042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -520,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -528,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -544,22 +2095,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -568,207 +2119,848 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72FF381-61F1-440C-981B-E70A1764411A}">
+  <dimension ref="A3:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="18"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+      <c r="C29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+      <c r="B43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
+      <c r="C46" s="15"/>
+      <c r="D46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B47" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="11:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="11:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="11:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="11:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="11:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="11:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="11:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="11:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="11:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="11:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="11:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="11:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'raw-data'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D404</xm:sqref>
+          <xm:sqref>D5:D410</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
